--- a/test/src/main/resources/excel/OprateLog.xlsx
+++ b/test/src/main/resources/excel/OprateLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\Graduation-project\200230\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test2\test\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,31 +38,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe: list t.id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.userName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.operation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.time }}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Log.userName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log.operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log.time }}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe: dataList Log.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +83,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,12 +122,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,22 +439,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -472,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
